--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_Block Bootstrapping_No_lineal_Estacionario_SETAR.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.07835399278800692</v>
+        <v>0.09895831063788695</v>
       </c>
       <c r="D2">
-        <v>0.9375558058768874</v>
+        <v>0.9220675324683478</v>
       </c>
       <c r="E2">
         <v>0.6405669233771814</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.6765057615994996</v>
+        <v>0.7804417311379241</v>
       </c>
       <c r="D3">
-        <v>0.4988127707093357</v>
+        <v>0.4434476219107353</v>
       </c>
       <c r="E3">
         <v>0.6405669233771814</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.8483177355358399</v>
+        <v>0.8116873613062648</v>
       </c>
       <c r="D4">
-        <v>0.3963819637069674</v>
+        <v>0.4256665352610445</v>
       </c>
       <c r="E4">
         <v>0.6405669233771814</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.289848497742295</v>
+        <v>-0.3037694819639957</v>
       </c>
       <c r="D5">
-        <v>0.7719679334087504</v>
+        <v>0.7641578843725607</v>
       </c>
       <c r="E5">
         <v>0.6405669233771814</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.5333744103785532</v>
+        <v>0.5023987842197064</v>
       </c>
       <c r="D6">
-        <v>0.5938450228745054</v>
+        <v>0.6203788460323709</v>
       </c>
       <c r="E6">
         <v>0.6385533042583046</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.5959223179499886</v>
+        <v>0.6177294781349821</v>
       </c>
       <c r="D7">
-        <v>0.5513074460321119</v>
+        <v>0.5430957605406712</v>
       </c>
       <c r="E7">
         <v>0.6385533042583046</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.3354354755348239</v>
+        <v>-0.3496547526933666</v>
       </c>
       <c r="D8">
-        <v>0.7373385169364099</v>
+        <v>0.7299227848561594</v>
       </c>
       <c r="E8">
         <v>0.6385533042583046</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.1270056819777697</v>
+        <v>0.1311459260075785</v>
       </c>
       <c r="D9">
-        <v>0.8989511092097162</v>
+        <v>0.8968517774632179</v>
       </c>
       <c r="E9">
         <v>0.6245256906794872</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.8699858547104411</v>
+        <v>-0.8385523144391922</v>
       </c>
       <c r="D10">
-        <v>0.3844324916792081</v>
+        <v>0.4107394865044696</v>
       </c>
       <c r="E10">
         <v>0.6245256906794872</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.9223945234515913</v>
+        <v>-0.8961006664061658</v>
       </c>
       <c r="D11">
-        <v>0.3564553497749201</v>
+        <v>0.3798998951930821</v>
       </c>
       <c r="E11">
         <v>0.6211664154912071</v>
